--- a/biology/Botanique/Mandevilla_laxa/Mandevilla_laxa.xlsx
+++ b/biology/Botanique/Mandevilla_laxa/Mandevilla_laxa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jasmin du Chili, Jasmín chileno
-Mandevilla laxa, ou Jasmin du Chili[3], est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Mandevilla que l'on trouve du sud de la Bolivie et de l'Équateur, jusqu'au nord de l'Argentine et du Chili. Cette plante a été la première de son genre à être connue en Europe, lorsqu'elle a été rapportée en Angleterre par le diplomate britannique Henry Mandeville (1773-1861) qui a donné son nom à son genre.
+Mandevilla laxa, ou Jasmin du Chili, est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Mandevilla que l'on trouve du sud de la Bolivie et de l'Équateur, jusqu'au nord de l'Argentine et du Chili. Cette plante a été la première de son genre à être connue en Europe, lorsqu'elle a été rapportée en Angleterre par le diplomate britannique Henry Mandeville (1773-1861) qui a donné son nom à son genre.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amblyanthera bridgesii Müll.Arg.
 Amblyanthera suaveolens Müll.Arg.
 Echites laxus Ruiz &amp; Pav.
-Echites suaveolens (Lindl.) A.DC[4].
+Echites suaveolens (Lindl.) A.DC.
 Mandevilla bridgesii (Müll.Arg.) Woodson
-Mandevilla suaveolens Lindl[5].
+Mandevilla suaveolens Lindl.
 Mandevilla tweedieana Gadeceau &amp; Stapf</t>
         </is>
       </c>
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une liane.
 Dans son milieu naturel, cette plante grimpante peut atteindre de 5 à 6 mètres de hauteur.
@@ -580,9 +596,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle ne supporte pas les températures au-dessous de -10°. Elle fleurit tout l'été dans le Midi de la France. Le parfum suave de ses fleurs blanches a donné son nom vernaculaire[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle ne supporte pas les températures au-dessous de -10°. Elle fleurit tout l'été dans le Midi de la France. Le parfum suave de ses fleurs blanches a donné son nom vernaculaire.
 Cette plante est sensible aux pucerons ; elle est très volubile et fait des chignons si on ne la démêle pas au fur et à mesure de sa croissance. Elle supporte l'hiver dans le Midi de la France, comme au sud de Grasse, où elle continue à pousser en situation abritée.
 </t>
         </is>
